--- a/viettel_ns/Report_ExcelFrom/QLNH/rpt_ThongBaoChiNganSach.xlsx
+++ b/viettel_ns/Report_ExcelFrom/QLNH/rpt_ThongBaoChiNganSach.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\admin\Desktop\trangnt3\qlns-ctc-bqp\sourcecode\viettel_ns\Report_ExcelFrom\QLNH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Viettel\QLNS\11-10-2022\sourcecode\viettel_ns\Report_ExcelFrom\QLNH\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12336"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="&lt;#Config&gt;" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="__dt__">Sheet1!$B$18:$E$18</definedName>
+    <definedName name="__dt__">Sheet1!$C$18:$F$18</definedName>
     <definedName name="I_lstGiaTri_I">Sheet1!#REF!</definedName>
-    <definedName name="KeepRows_1_">Sheet1!$B$22:$K$31</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$K$31</definedName>
+    <definedName name="KeepRows_1_">Sheet1!$B$22:$L$33</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$L$33</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$14:$17</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -110,12 +110,6 @@
     <t xml:space="preserve">Tổng </t>
   </si>
   <si>
-    <t>TUQ. CỤC TRƯỞNG</t>
-  </si>
-  <si>
-    <t>TRƯỞNG PHÒNG</t>
-  </si>
-  <si>
     <t xml:space="preserve">Tổng số
 (VND)
 </t>
@@ -134,9 +128,6 @@
     <t xml:space="preserve"> Quy đổi VND</t>
   </si>
   <si>
-    <t>CỤC TÀI CHÍNH</t>
-  </si>
-  <si>
     <t>&lt;#fTongSo_VND&gt;</t>
   </si>
   <si>
@@ -200,9 +191,6 @@
     <t>&lt;#format cell(fmTextBox)&gt;&lt;#Row height(Autofit; 120)&gt;</t>
   </si>
   <si>
-    <t>&lt;#Ten1&gt;</t>
-  </si>
-  <si>
     <t>fmTextBoxLeft</t>
   </si>
   <si>
@@ -266,9 +254,6 @@
     <t xml:space="preserve">  &lt;#IF(&lt;#dt.depth&gt;=0;&lt;#dt.Muc&gt;&lt;#AltFormatTextBoxCenterBold&gt;; &lt;#IF(&lt;#dt.depth&gt;=1;&lt;#dt.Position&gt;&lt;#AltFormatTextBoxCenter&gt;;)&gt;)&gt;</t>
   </si>
   <si>
-    <t>PHÒNG KHNS</t>
-  </si>
-  <si>
     <t>Số:…/TB-KHNS</t>
   </si>
   <si>
@@ -294,6 +279,21 @@
   </si>
   <si>
     <t xml:space="preserve"> THÔNG BÁO</t>
+  </si>
+  <si>
+    <t>&lt;#ThuaLenh2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#ChucDanh2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#Ten2&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#evaluate(UPPER(&lt;#idDonVi&gt;))&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#evaluate(UPPER(&lt;#idDonViCapDuoi&gt;))&gt;</t>
   </si>
 </sst>
 </file>
@@ -612,7 +612,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -629,9 +629,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
@@ -695,6 +692,24 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -755,16 +770,16 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1112,361 +1127,374 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:L32"/>
+  <dimension ref="B1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B3" sqref="B3:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.140625" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="1.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="0.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="7" style="5" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" style="5" customWidth="1"/>
-    <col min="5" max="5" width="1.85546875" style="5" customWidth="1"/>
-    <col min="6" max="7" width="15.28515625" style="5" customWidth="1"/>
-    <col min="8" max="8" width="30.140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="31.28515625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="15.28515625" style="5" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" style="5" customWidth="1"/>
-    <col min="12" max="16384" width="1.140625" style="5"/>
+    <col min="1" max="1" width="0.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="7.33203125" style="5" customWidth="1"/>
+    <col min="3" max="4" width="7" style="5" customWidth="1"/>
+    <col min="5" max="5" width="23.5546875" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27.5546875" style="5" customWidth="1"/>
+    <col min="7" max="7" width="21" style="5" customWidth="1"/>
+    <col min="8" max="8" width="14.88671875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="30.109375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="31.33203125" style="5" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" style="5" customWidth="1"/>
+    <col min="12" max="12" width="21.109375" style="5" customWidth="1"/>
+    <col min="13" max="16384" width="1.109375" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="42"/>
-    </row>
-    <row r="2" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="40" t="s">
+    <row r="1" spans="2:13" ht="18" x14ac:dyDescent="0.35">
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="47" t="s">
+        <v>45</v>
+      </c>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+    </row>
+    <row r="2" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B2" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+    </row>
+    <row r="3" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B3" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="C3" s="44"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="48" t="s">
+        <v>70</v>
+      </c>
+      <c r="I3" s="43"/>
+      <c r="J3" s="43"/>
+      <c r="K3" s="43"/>
+      <c r="L3" s="43"/>
+    </row>
+    <row r="4" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="65" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="6"/>
+      <c r="H4" s="71" t="s">
+        <v>74</v>
+      </c>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="71"/>
+    </row>
+    <row r="5" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="34"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="34"/>
+      <c r="F5" s="35"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="36"/>
+    </row>
+    <row r="6" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B6" s="66" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="66"/>
+      <c r="D6" s="66"/>
+      <c r="E6" s="66"/>
+      <c r="F6" s="66"/>
+      <c r="G6" s="66"/>
+      <c r="H6" s="66"/>
+      <c r="I6" s="66"/>
+      <c r="J6" s="66"/>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
+      <c r="M6" s="5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B7" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="43"/>
+      <c r="G7" s="43"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43"/>
+      <c r="K7" s="43"/>
+      <c r="L7" s="43"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B8" s="45" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="45"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="45"/>
+      <c r="H8" s="45"/>
+      <c r="I8" s="45"/>
+      <c r="J8" s="45"/>
+      <c r="K8" s="45"/>
+      <c r="L8" s="45"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="64" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="G9" s="64"/>
+      <c r="H9" s="64"/>
+      <c r="I9" s="64"/>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64"/>
+      <c r="L9" s="64"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B10" s="6"/>
+      <c r="L10" s="6"/>
+    </row>
+    <row r="11" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B11" s="6"/>
+      <c r="C11" s="69" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+      <c r="K11" s="70"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B12" s="6"/>
+      <c r="C12" s="68" t="s">
+        <v>77</v>
+      </c>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B13" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="68"/>
+      <c r="G13" s="68"/>
+      <c r="H13" s="68"/>
+      <c r="I13" s="68"/>
+      <c r="J13" s="68"/>
+      <c r="K13" s="68"/>
+      <c r="L13" s="68"/>
+    </row>
+    <row r="14" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J14" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+    </row>
+    <row r="15" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="72" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="54" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="80"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="51"/>
+      <c r="I15" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="J15" s="55"/>
+      <c r="K15" s="54" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" s="55"/>
+    </row>
+    <row r="16" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="73"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="53"/>
+      <c r="I16" s="56"/>
+      <c r="J16" s="57"/>
+      <c r="K16" s="56"/>
+      <c r="L16" s="57"/>
+    </row>
+    <row r="17" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+      <c r="C17" s="74"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="85"/>
+      <c r="H17" s="86"/>
+      <c r="I17" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="K17" s="85"/>
+      <c r="L17" s="86"/>
+    </row>
+    <row r="18" spans="2:12" s="11" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="1"/>
+      <c r="C18" s="41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D18" s="75" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="76"/>
+      <c r="F18" s="77"/>
+      <c r="G18" s="78" t="s">
+        <v>58</v>
+      </c>
+      <c r="H18" s="79"/>
+      <c r="I18" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="K18" s="78" t="s">
+        <v>61</v>
+      </c>
+      <c r="L18" s="79"/>
+    </row>
+    <row r="19" spans="2:12" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="1"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19" s="61"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="H19" s="59"/>
+      <c r="I19" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-    </row>
-    <row r="3" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="G3" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-    </row>
-    <row r="4" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="60" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="60"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="6"/>
-      <c r="G4" s="66" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-    </row>
-    <row r="5" spans="2:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="35"/>
-      <c r="E5" s="36"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-      <c r="K5" s="37"/>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="61"/>
-      <c r="F6" s="61"/>
-      <c r="G6" s="61"/>
-      <c r="H6" s="61"/>
-      <c r="I6" s="61"/>
-      <c r="J6" s="61"/>
-      <c r="K6" s="61"/>
-      <c r="L6" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B7" s="38" t="s">
-        <v>84</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="40"/>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-    </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="58" t="s">
+      <c r="K19" s="58" t="s">
+        <v>33</v>
+      </c>
+      <c r="L19" s="59"/>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+      <c r="D20" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="2:12" ht="18" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
+      <c r="G22" s="49"/>
+      <c r="H22" s="49"/>
+      <c r="I22" s="49"/>
+      <c r="J22" s="49"/>
+      <c r="K22" s="49"/>
+      <c r="L22" s="49"/>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="63" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="58"/>
-      <c r="D9" s="58"/>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
-      <c r="I9" s="58"/>
-      <c r="J9" s="58"/>
-      <c r="K9" s="58"/>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-    </row>
-    <row r="11" spans="2:12" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="B11" s="6"/>
-      <c r="C11" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="D11" s="65"/>
-      <c r="E11" s="65"/>
-      <c r="F11" s="65"/>
-      <c r="G11" s="65"/>
-      <c r="H11" s="65"/>
-      <c r="I11" s="65"/>
-      <c r="J11" s="65"/>
-      <c r="K11" s="65"/>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
-      <c r="C12" s="63" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="63"/>
-      <c r="K12" s="63"/>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B13" s="63" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="63"/>
-      <c r="K13" s="63"/>
-    </row>
-    <row r="14" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I14" s="62" t="s">
-        <v>43</v>
-      </c>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-    </row>
-    <row r="15" spans="2:12" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="49" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="75"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="G15" s="46"/>
-      <c r="H15" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="I15" s="50"/>
-      <c r="J15" s="49" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15" s="50"/>
-    </row>
-    <row r="16" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="68"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="77"/>
-      <c r="E16" s="78"/>
-      <c r="F16" s="47"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="51"/>
-      <c r="K16" s="52"/>
-    </row>
-    <row r="17" spans="2:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="69"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="81"/>
-      <c r="H17" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I17" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="80"/>
-      <c r="K17" s="81"/>
-    </row>
-    <row r="18" spans="2:11" s="12" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B18" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="C18" s="70" t="s">
-        <v>61</v>
-      </c>
-      <c r="D18" s="71"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="73" t="s">
-        <v>62</v>
-      </c>
-      <c r="G18" s="74"/>
-      <c r="H18" s="10" t="s">
-        <v>63</v>
-      </c>
-      <c r="I18" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="J18" s="73" t="s">
-        <v>65</v>
-      </c>
-      <c r="K18" s="74"/>
-    </row>
-    <row r="19" spans="2:11" s="12" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="9"/>
-      <c r="C19" s="55" t="s">
-        <v>24</v>
-      </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="53" t="s">
-        <v>33</v>
-      </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I19" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="J19" s="53" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" s="54"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="44"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="C23" s="59" t="s">
-        <v>83</v>
-      </c>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="1"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="1"/>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-    </row>
-    <row r="25" spans="2:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C24" s="1"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+    </row>
+    <row r="25" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1474,145 +1502,159 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="I25" s="58" t="s">
-        <v>25</v>
-      </c>
-      <c r="J25" s="58"/>
-      <c r="K25" s="58"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="I25" s="1"/>
+      <c r="J25" s="64" t="s">
+        <v>81</v>
+      </c>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="2"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-      <c r="I26" s="58" t="s">
-        <v>26</v>
-      </c>
-      <c r="J26" s="58"/>
-      <c r="K26" s="58"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="64" t="s">
+        <v>82</v>
+      </c>
+      <c r="K26" s="64"/>
+      <c r="L26" s="64"/>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B27" s="7"/>
       <c r="C27" s="1"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="33"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
-      <c r="I27" s="34"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="34"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B28" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C28" s="1"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="33"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B29" s="1"/>
+      <c r="I28" s="1"/>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="38"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
-      <c r="I29" s="58" t="s">
-        <v>54</v>
-      </c>
-      <c r="J29" s="58"/>
-      <c r="K29" s="58"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B30" s="1"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="1"/>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B31" s="1"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="38"/>
+      <c r="L29" s="38"/>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="58"/>
-      <c r="G31" s="58"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="58"/>
-      <c r="J31" s="58"/>
-      <c r="K31" s="58"/>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C32" s="1"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="64" t="s">
+        <v>83</v>
+      </c>
+      <c r="K32" s="64"/>
+      <c r="L32" s="64"/>
+    </row>
+    <row r="33" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C33" s="1"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
+      <c r="F33" s="39"/>
+      <c r="G33" s="39"/>
+      <c r="H33" s="39"/>
+      <c r="I33" s="39"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="39"/>
+      <c r="L33" s="1"/>
+    </row>
+    <row r="34" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="C15:E17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B6:K6"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="B13:K13"/>
-    <mergeCell ref="B7:K7"/>
-    <mergeCell ref="B8:K8"/>
-    <mergeCell ref="B9:K9"/>
+  <mergeCells count="35">
+    <mergeCell ref="C15:C17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="D15:F17"/>
+    <mergeCell ref="K17:L17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="B13:L13"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B8:L8"/>
+    <mergeCell ref="B9:L9"/>
     <mergeCell ref="C11:K11"/>
     <mergeCell ref="C12:K12"/>
-    <mergeCell ref="G4:K4"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="C23:J23"/>
-    <mergeCell ref="C24:K24"/>
-    <mergeCell ref="C30:J30"/>
-    <mergeCell ref="I25:K25"/>
-    <mergeCell ref="I26:K26"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="C22:K22"/>
-    <mergeCell ref="F15:G16"/>
-    <mergeCell ref="H15:I16"/>
-    <mergeCell ref="J15:K16"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="C19:E19"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="G1:K1"/>
-    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="D23:K23"/>
+    <mergeCell ref="D24:L24"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="D22:L22"/>
+    <mergeCell ref="G15:H16"/>
+    <mergeCell ref="I15:J16"/>
+    <mergeCell ref="K15:L16"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="H3:L3"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0" header="0.31496062992125984" footer="0"/>
-  <pageSetup paperSize="9" scale="82" fitToHeight="0" orientation="landscape" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="67" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;R&amp;"Times New Roman,Italic"&amp;12Tờ: &lt;#To&gt;- Trang: &amp;P/&amp;N</oddHeader>
   </headerFooter>
@@ -1627,318 +1669,318 @@
       <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="18"/>
+    <col min="1" max="16384" width="9.109375" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
-      <c r="G1" s="17"/>
-      <c r="H1" s="17"/>
-      <c r="I1" s="17"/>
-      <c r="J1" s="17"/>
-      <c r="K1" s="17"/>
-      <c r="L1" s="17"/>
-      <c r="M1" s="17"/>
-      <c r="N1" s="17"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="17"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
-      <c r="L2" s="17"/>
-      <c r="M2" s="17"/>
-      <c r="N2" s="17"/>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
+      <c r="L1" s="16"/>
+      <c r="M1" s="16"/>
+      <c r="N1" s="16"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="16"/>
+      <c r="N2" s="16"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="17"/>
-      <c r="D3" s="17"/>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="17"/>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="17"/>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="17"/>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="19" t="s">
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A6" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="20" t="s">
+      <c r="B6" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="17"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="17"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="21" t="s">
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A8" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="22" t="s">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="22" t="s">
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="L8" s="17"/>
-      <c r="M8" s="22" t="s">
+      <c r="L8" s="16"/>
+      <c r="M8" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="N8" s="17"/>
-    </row>
-    <row r="9" spans="1:14" ht="150" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
+      <c r="N8" s="16"/>
+    </row>
+    <row r="9" spans="1:14" ht="144" x14ac:dyDescent="0.35">
+      <c r="A9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="23" t="s">
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="25" t="s">
+      <c r="I9" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="J9" s="17"/>
-      <c r="K9" s="24" t="s">
+      <c r="J9" s="16"/>
+      <c r="K9" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="L9" s="17"/>
-      <c r="M9" s="23" t="s">
+      <c r="L9" s="16"/>
+      <c r="M9" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="N9" s="23" t="s">
+      <c r="N9" s="22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="56.25" x14ac:dyDescent="0.3">
-      <c r="H10" s="18" t="s">
+    <row r="10" spans="1:14" ht="52.2" x14ac:dyDescent="0.35">
+      <c r="H10" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="M10" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H11" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="M12" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="N12" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="34.799999999999997" x14ac:dyDescent="0.35">
+      <c r="H13" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="I10" s="26" t="s">
+      <c r="I13" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" s="18" t="s">
+      <c r="M13" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="69.599999999999994" x14ac:dyDescent="0.35">
+      <c r="H14" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14" s="17" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H11" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="I11" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="M11" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="M12" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="N12" s="18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="H13" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="M13" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="N13" s="18" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="75" x14ac:dyDescent="0.3">
-      <c r="H14" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="I14" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="M14" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="N14" s="18" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="H16" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="M16" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="N16" s="17" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="H16" s="18" t="s">
+    <row r="17" spans="8:14" x14ac:dyDescent="0.35">
+      <c r="H17" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="I16" s="30" t="s">
+      <c r="I17" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="M16" s="18" t="s">
+      <c r="M17" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="N16" s="18" t="s">
+      <c r="N17" s="17" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="H17" s="18" t="s">
+    <row r="18" spans="8:14" x14ac:dyDescent="0.35">
+      <c r="H18" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="M18" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="I17" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="M17" s="18" t="s">
+      <c r="N18" s="17" t="s">
         <v>56</v>
       </c>
-      <c r="N17" s="18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="H18" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="I18" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="M18" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="N18" s="18" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="H19" s="18" t="s">
+    </row>
+    <row r="19" spans="8:14" x14ac:dyDescent="0.35">
+      <c r="H19" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="M19" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="N19" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="8:14" x14ac:dyDescent="0.35">
+      <c r="H20" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="M20" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="I19" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="M19" s="18" t="s">
+      <c r="N20" s="17" t="s">
         <v>67</v>
-      </c>
-      <c r="N19" s="18" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="8:14" x14ac:dyDescent="0.3">
-      <c r="H20" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="I20" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="M20" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="N20" s="18" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/viettel_ns/Report_ExcelFrom/QLNH/rpt_ThongBaoChiNganSach.xlsx
+++ b/viettel_ns/Report_ExcelFrom/QLNH/rpt_ThongBaoChiNganSach.xlsx
@@ -16,11 +16,11 @@
     <sheet name="&lt;#Config&gt;" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="__dt__">Sheet1!$C$18:$F$18</definedName>
+    <definedName name="__dt__">Sheet1!$C$20:$F$20</definedName>
     <definedName name="I_lstGiaTri_I">Sheet1!#REF!</definedName>
-    <definedName name="KeepRows_1_">Sheet1!$B$22:$L$33</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$L$33</definedName>
-    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$14:$17</definedName>
+    <definedName name="KeepRows_1_">Sheet1!$B$24:$L$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$B$1:$L$35</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$16:$19</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -173,9 +173,6 @@
     <t>&lt;#format cell(ItemsFormat)&gt;&lt;#Row height(Autofit; 120)&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">                         Mẫu số 01 KH-XH</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
@@ -254,9 +251,6 @@
     <t xml:space="preserve">  &lt;#IF(&lt;#dt.depth&gt;=0;&lt;#dt.Muc&gt;&lt;#AltFormatTextBoxCenterBold&gt;; &lt;#IF(&lt;#dt.depth&gt;=1;&lt;#dt.Position&gt;&lt;#AltFormatTextBoxCenter&gt;;)&gt;)&gt;</t>
   </si>
   <si>
-    <t>Số:…/TB-KHNS</t>
-  </si>
-  <si>
     <t>Kính gửi: &lt;#sNoiDung&gt;&lt;#Row height(Autofit)&gt;</t>
   </si>
   <si>
@@ -266,21 +260,12 @@
     <t>Căn cứ (*): &lt;#sCanCu&gt;.&lt;#Row height(Autofit)&gt;</t>
   </si>
   <si>
-    <t>Tháng (Quý) &lt;#thang&gt; năm &lt;#nam&gt;</t>
-  </si>
-  <si>
     <t>Phòng Kế hoạch ngân sách thông báo chi ngân sách từ nguồn Quỹ dự trữ ngoại hối tháng (quý) &lt;#thang&gt; năm &lt;#nam&gt;  như sau:</t>
   </si>
   <si>
     <t>Căn cứ Thông báo này, đề nghị &lt;#sPhongBan&gt; lập Thông tri cấp kinh phí  gửi các  đơn vị chủ hàng, chủ đầu tư.</t>
   </si>
   <si>
-    <t>CHI NGÂN SÁCH TỪ NGUỒN QUỸ DỰ TRỮ NGOẠI HỐI</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> THÔNG BÁO</t>
-  </si>
-  <si>
     <t>&lt;#ThuaLenh2&gt;</t>
   </si>
   <si>
@@ -294,6 +279,21 @@
   </si>
   <si>
     <t>&lt;#evaluate(UPPER(&lt;#idDonViCapDuoi&gt;))&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#sTieuDe1&gt;</t>
+  </si>
+  <si>
+    <t>&lt;#sTieuDe2&gt;</t>
+  </si>
+  <si>
+    <t>Số:…. /TB-KHNS</t>
+  </si>
+  <si>
+    <t>Mẫu số 01/KH-XH</t>
+  </si>
+  <si>
+    <t>Tháng &lt;#thang&gt; quý &lt;#quy&gt; năm &lt;#nam&gt;</t>
   </si>
 </sst>
 </file>
@@ -612,7 +612,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -711,136 +711,146 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1127,10 +1137,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:M34"/>
+  <dimension ref="B1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:E3"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageBreakPreview" topLeftCell="A4" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="1.109375" defaultRowHeight="16.8" x14ac:dyDescent="0.3"/>
@@ -1150,507 +1160,512 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13" ht="18" x14ac:dyDescent="0.35">
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
       <c r="F1" s="4"/>
       <c r="G1" s="3"/>
-      <c r="H1" s="47" t="s">
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="90" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="90"/>
+    </row>
+    <row r="2" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B2" s="48" t="s">
+        <v>79</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="8"/>
+      <c r="J2" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+    </row>
+    <row r="3" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B3" s="88" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" s="88"/>
+      <c r="D3" s="88"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="88"/>
+      <c r="G3" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="I3" s="43"/>
+      <c r="J3" s="87" t="s">
+        <v>69</v>
+      </c>
+      <c r="K3" s="87"/>
+      <c r="L3" s="87"/>
+    </row>
+    <row r="4" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B4" s="48" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="3"/>
+      <c r="I4" s="43"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+      <c r="L4" s="45"/>
+    </row>
+    <row r="5" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I5" s="44"/>
+      <c r="J5" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="K5" s="47"/>
+      <c r="L5" s="47"/>
+    </row>
+    <row r="6" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="34"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="35"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+    </row>
+    <row r="7" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B7" s="68" t="s">
+        <v>81</v>
+      </c>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="68"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
+      <c r="J7" s="68"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
+      <c r="M7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-    </row>
-    <row r="2" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B2" s="45" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="I2" s="43"/>
-      <c r="J2" s="43"/>
-      <c r="K2" s="43"/>
-      <c r="L2" s="43"/>
-    </row>
-    <row r="3" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B3" s="44" t="s">
+    </row>
+    <row r="8" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="B8" s="71" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="71"/>
+      <c r="D8" s="71"/>
+      <c r="E8" s="71"/>
+      <c r="F8" s="71"/>
+      <c r="G8" s="71"/>
+      <c r="H8" s="71"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="71"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B9" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="C3" s="44"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" s="48" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-    </row>
-    <row r="4" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="65" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="6"/>
-      <c r="H4" s="71" t="s">
-        <v>74</v>
-      </c>
-      <c r="I4" s="71"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="71"/>
-      <c r="L4" s="71"/>
-    </row>
-    <row r="5" spans="2:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="34"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="35"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="36"/>
-    </row>
-    <row r="6" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B6" s="66" t="s">
-        <v>80</v>
-      </c>
-      <c r="C6" s="66"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="66"/>
-      <c r="F6" s="66"/>
-      <c r="G6" s="66"/>
-      <c r="H6" s="66"/>
-      <c r="I6" s="66"/>
-      <c r="J6" s="66"/>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
-      <c r="M6" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.3">
-      <c r="B7" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-      <c r="J7" s="43"/>
-      <c r="K7" s="43"/>
-      <c r="L7" s="43"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="45" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="45"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45"/>
-      <c r="H8" s="45"/>
-      <c r="I8" s="45"/>
-      <c r="J8" s="45"/>
-      <c r="K8" s="45"/>
-      <c r="L8" s="45"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="64" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="64"/>
-      <c r="D9" s="64"/>
-      <c r="E9" s="64"/>
-      <c r="F9" s="64"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="72"/>
+      <c r="J9" s="72"/>
+      <c r="K9" s="72"/>
+      <c r="L9" s="72"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="6"/>
-      <c r="L10" s="6"/>
-    </row>
-    <row r="11" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="B11" s="6"/>
-      <c r="C11" s="69" t="s">
-        <v>75</v>
-      </c>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-      <c r="K11" s="70"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="J10" s="46"/>
+      <c r="K10" s="46"/>
+      <c r="L10" s="46"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B11" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="73"/>
+      <c r="G11" s="73"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="73"/>
+      <c r="J11" s="73"/>
+      <c r="K11" s="73"/>
+      <c r="L11" s="73"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="6"/>
-      <c r="C12" s="68" t="s">
-        <v>77</v>
-      </c>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="68" t="s">
+      <c r="L12" s="6"/>
+    </row>
+    <row r="13" spans="2:13" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B13" s="6"/>
+      <c r="C13" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="75"/>
+      <c r="I13" s="75"/>
+      <c r="J13" s="75"/>
+      <c r="K13" s="75"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B14" s="6"/>
+      <c r="C14" s="70" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+      <c r="K14" s="70"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B15" s="70" t="s">
         <v>41</v>
       </c>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="68"/>
-      <c r="G13" s="68"/>
-      <c r="H13" s="68"/>
-      <c r="I13" s="68"/>
-      <c r="J13" s="68"/>
-      <c r="K13" s="68"/>
-      <c r="L13" s="68"/>
-    </row>
-    <row r="14" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J14" s="67" t="s">
+      <c r="C15" s="70"/>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="70"/>
+      <c r="L15" s="70"/>
+    </row>
+    <row r="16" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J16" s="69" t="s">
         <v>40</v>
       </c>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-    </row>
-    <row r="15" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="72" t="s">
+      <c r="K16" s="69"/>
+      <c r="L16" s="69"/>
+    </row>
+    <row r="17" spans="2:13" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="D15" s="54" t="s">
+      <c r="D17" s="57" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="80"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="50" t="s">
+      <c r="E17" s="58"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="51"/>
-      <c r="I15" s="54" t="s">
+      <c r="H17" s="78"/>
+      <c r="I17" s="57" t="s">
         <v>26</v>
       </c>
-      <c r="J15" s="55"/>
-      <c r="K15" s="54" t="s">
+      <c r="J17" s="59"/>
+      <c r="K17" s="57" t="s">
         <v>27</v>
       </c>
-      <c r="L15" s="55"/>
-    </row>
-    <row r="16" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="73"/>
-      <c r="D16" s="81"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="53"/>
-      <c r="I16" s="56"/>
-      <c r="J16" s="57"/>
-      <c r="K16" s="56"/>
-      <c r="L16" s="57"/>
-    </row>
-    <row r="17" spans="2:12" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="1"/>
-      <c r="C17" s="74"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="85"/>
-      <c r="H17" s="86"/>
-      <c r="I17" s="14" t="s">
+      <c r="L17" s="59"/>
+    </row>
+    <row r="18" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="50"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="65"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="65"/>
+    </row>
+    <row r="19" spans="2:13" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="64"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="67"/>
+      <c r="I19" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="J19" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="K17" s="85"/>
-      <c r="L17" s="86"/>
-    </row>
-    <row r="18" spans="2:12" s="11" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="1"/>
-      <c r="C18" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="D18" s="75" t="s">
+      <c r="K19" s="66"/>
+      <c r="L19" s="67"/>
+    </row>
+    <row r="20" spans="2:13" s="11" customFormat="1" ht="32.4" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="1"/>
+      <c r="C20" s="41" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="53"/>
+      <c r="F20" s="54"/>
+      <c r="G20" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="E18" s="76"/>
-      <c r="F18" s="77"/>
-      <c r="G18" s="78" t="s">
+      <c r="H20" s="56"/>
+      <c r="I20" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="H18" s="79"/>
-      <c r="I18" s="9" t="s">
+      <c r="J20" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="J18" s="10" t="s">
+      <c r="K20" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="K18" s="78" t="s">
-        <v>61</v>
-      </c>
-      <c r="L18" s="79"/>
-    </row>
-    <row r="19" spans="2:12" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="1"/>
-      <c r="C19" s="40"/>
-      <c r="D19" s="60" t="s">
+      <c r="L20" s="56"/>
+    </row>
+    <row r="21" spans="2:13" s="11" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="1"/>
+      <c r="C21" s="40"/>
+      <c r="D21" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="61"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="58" t="s">
+      <c r="E21" s="84"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="81" t="s">
         <v>30</v>
       </c>
-      <c r="H19" s="59"/>
-      <c r="I19" s="12" t="s">
+      <c r="H21" s="82"/>
+      <c r="I21" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="J19" s="13" t="s">
+      <c r="J21" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="K19" s="58" t="s">
+      <c r="K21" s="81" t="s">
         <v>33</v>
       </c>
-      <c r="L19" s="59"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B20" s="1"/>
-      <c r="D20" s="5" t="s">
+      <c r="L21" s="82"/>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+      <c r="D22" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="2:12" ht="18" x14ac:dyDescent="0.3">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="49"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="49"/>
-      <c r="K22" s="49"/>
-      <c r="L22" s="49"/>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="63" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="63"/>
-      <c r="F23" s="63"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="1"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="D23" s="76" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="76"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="76"/>
+      <c r="K23" s="76"/>
+    </row>
+    <row r="24" spans="2:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="63"/>
-      <c r="E24" s="63"/>
-      <c r="F24" s="63"/>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
-    </row>
-    <row r="25" spans="2:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J24" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="K24" s="73"/>
+      <c r="L24" s="73"/>
+      <c r="M24" s="73"/>
+    </row>
+    <row r="25" spans="2:13" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="64" t="s">
-        <v>81</v>
-      </c>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J25" s="73" t="s">
+        <v>77</v>
+      </c>
+      <c r="K25" s="73"/>
+      <c r="L25" s="73"/>
+      <c r="M25" s="73"/>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1"/>
-      <c r="J26" s="64" t="s">
-        <v>82</v>
-      </c>
-      <c r="K26" s="64"/>
-      <c r="L26" s="64"/>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B27" s="7"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="42"/>
+    </row>
+    <row r="27" spans="2:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="33"/>
+      <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="33"/>
-      <c r="L27" s="33"/>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="33"/>
+      <c r="E28" s="2"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B29" s="7"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="38"/>
+      <c r="E29" s="33"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="E30" s="33"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J30" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="K30" s="73"/>
+      <c r="L30" s="73"/>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
+      <c r="E31" s="38"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="J31" s="38"/>
+      <c r="L31" s="38"/>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C32" s="1"/>
-      <c r="D32" s="42"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="64" t="s">
-        <v>83</v>
-      </c>
-      <c r="K32" s="64"/>
-      <c r="L32" s="64"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="K32" s="38"/>
     </row>
     <row r="33" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C33" s="1"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="39"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="39"/>
-      <c r="L33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="1"/>
+      <c r="G33" s="1"/>
+      <c r="H33" s="1"/>
+      <c r="I33" s="1"/>
     </row>
     <row r="34" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
-      <c r="J34" s="7"/>
-      <c r="K34" s="7"/>
-      <c r="L34" s="7"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+    </row>
+    <row r="35" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C35" s="1"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
+      <c r="F35" s="39"/>
+      <c r="G35" s="39"/>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+      <c r="K35" s="39"/>
+      <c r="L35" s="1"/>
+    </row>
+    <row r="36" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
-    <mergeCell ref="C15:C17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="D15:F17"/>
-    <mergeCell ref="K17:L17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="B13:L13"/>
+  <mergeCells count="33">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="J2:L2"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="D23:K23"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="G17:H18"/>
+    <mergeCell ref="I17:J18"/>
+    <mergeCell ref="K17:L18"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="B4:F4"/>
+    <mergeCell ref="C17:C19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="D17:F19"/>
+    <mergeCell ref="K19:L19"/>
+    <mergeCell ref="G19:H19"/>
     <mergeCell ref="B7:L7"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="B15:L15"/>
     <mergeCell ref="B8:L8"/>
     <mergeCell ref="B9:L9"/>
-    <mergeCell ref="C11:K11"/>
-    <mergeCell ref="C12:K12"/>
-    <mergeCell ref="H4:L4"/>
-    <mergeCell ref="D23:K23"/>
-    <mergeCell ref="D24:L24"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="D22:L22"/>
-    <mergeCell ref="G15:H16"/>
-    <mergeCell ref="I15:J16"/>
-    <mergeCell ref="K15:L16"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="K19:L19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="H1:L1"/>
-    <mergeCell ref="H3:L3"/>
+    <mergeCell ref="B11:L11"/>
+    <mergeCell ref="C13:K13"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.59055118110236227" bottom="0" header="0.31496062992125984" footer="0"/>
@@ -1910,77 +1925,77 @@
         <v>43</v>
       </c>
       <c r="N14" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="H16" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="I16" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="M16" s="17" t="s">
+      <c r="N16" s="17" t="s">
         <v>49</v>
-      </c>
-      <c r="N16" s="17" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="17" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H17" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="M17" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="I17" s="29" t="s">
-        <v>51</v>
-      </c>
-      <c r="M17" s="17" t="s">
+      <c r="N17" s="17" t="s">
         <v>52</v>
-      </c>
-      <c r="N17" s="17" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="18" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H18" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="M18" s="17" t="s">
         <v>54</v>
       </c>
-      <c r="I18" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="M18" s="17" t="s">
+      <c r="N18" s="17" t="s">
         <v>55</v>
-      </c>
-      <c r="N18" s="17" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="19" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H19" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="I19" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="M19" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="I19" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="M19" s="17" t="s">
+      <c r="N19" s="17" t="s">
         <v>63</v>
-      </c>
-      <c r="N19" s="17" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="20" spans="8:14" x14ac:dyDescent="0.35">
       <c r="H20" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="I20" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="M20" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="I20" s="32" t="s">
-        <v>65</v>
-      </c>
-      <c r="M20" s="17" t="s">
+      <c r="N20" s="17" t="s">
         <v>66</v>
-      </c>
-      <c r="N20" s="17" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>
